--- a/CP03ISSP/Omaha_Cal_Info_CP03ISSP_00003.xlsx
+++ b/CP03ISSP/Omaha_Cal_Info_CP03ISSP_00003.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="7080" windowWidth="31300" windowHeight="12060" tabRatio="579"/>
+    <workbookView xWindow="945" yWindow="7080" windowWidth="29040" windowHeight="12060" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
   <si>
     <t>Ref Des</t>
   </si>
@@ -250,28 +250,13 @@
     <t>CP03ISSP-00001</t>
   </si>
   <si>
-    <t>CP03ISSP-SP001-02-DOSTAJ000</t>
-  </si>
-  <si>
     <t>Requires TEMPWAT, PRESWAT and PRACSAL from CP03ISSP-SP001-09-CTDPFJ000</t>
-  </si>
-  <si>
-    <t>CP03ISSP-SP001-04-OPTAAJ000</t>
   </si>
   <si>
     <t>CP03ISSP-SP001-05-VELPTJ000</t>
   </si>
   <si>
-    <t>CP03ISSP-SP001-06-NUTNRJ000</t>
-  </si>
-  <si>
     <t>CP03ISSP-SP001-07-SPKIRJ000</t>
-  </si>
-  <si>
-    <t>CP03ISSP-SP001-08-FLORTJ000</t>
-  </si>
-  <si>
-    <t>CP03ISSP-SP001-09-CTDPFJ000</t>
   </si>
   <si>
     <t>CP03ISSP-SP001-10-PARADJ000</t>
@@ -322,13 +307,34 @@
     <t>CP03ISSP-00003</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Ship: Scarlett Isabella (no cruise number)</t>
   </si>
   <si>
     <t>ACS-145 data is not correct -- pending extraction from the vendor provided files</t>
+  </si>
+  <si>
+    <t>40° 21.8667'N</t>
+  </si>
+  <si>
+    <t>70° 53.2833'W</t>
+  </si>
+  <si>
+    <t>Scarlett Isabella</t>
+  </si>
+  <si>
+    <t>CP03ISSP-SP001-02-OPTAAJ000</t>
+  </si>
+  <si>
+    <t>CP03ISSP-SP001-03-NUTNRJ000</t>
+  </si>
+  <si>
+    <t>CP03ISSP-SP001-06-DOSTAJ000</t>
+  </si>
+  <si>
+    <t>CP03ISSP-SP001-08-CTDPFJ000</t>
+  </si>
+  <si>
+    <t>CP03ISSP-SP001-09-FLORTJ000</t>
   </si>
 </sst>
 </file>
@@ -336,12 +342,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.000E+00"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -676,14 +682,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1237,7 +1243,7 @@
     <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,10 +1273,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1297,7 +1303,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1308,14 +1314,14 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1870,7 +1876,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -2210,28 +2216,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="34.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" ht="28">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2266,12 +2272,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C2" s="39">
         <v>3</v>
@@ -2283,111 +2289,113 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="F2" s="38"/>
-      <c r="G2" s="39">
-        <v>40.364366666666669</v>
-      </c>
-      <c r="H2" s="39">
-        <v>-70.888133333333329</v>
+      <c r="G2" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>95</v>
       </c>
       <c r="I2" s="39">
         <v>95</v>
       </c>
       <c r="J2" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K2" s="45" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M2" s="16"/>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1">
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1">
+    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:13" s="20" customFormat="1">
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1">
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1">
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
       <c r="F8" s="22"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1">
+    <row r="9" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
       <c r="F9" s="22"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1">
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1">
+    <row r="11" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:13" s="20" customFormat="1">
+    <row r="12" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:13" s="20" customFormat="1">
+    <row r="13" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:13" s="20" customFormat="1">
+    <row r="14" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:13" s="20" customFormat="1">
+    <row r="15" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:13" s="20" customFormat="1">
+    <row r="16" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="3:6" s="20" customFormat="1">
+    <row r="17" spans="3:6" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
@@ -2408,20 +2416,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="61.83203125" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2444,12 +2454,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="13" customFormat="1">
+    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>72</v>
@@ -2470,9 +2480,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="13" customFormat="1">
+    <row r="4" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>72</v>
@@ -2493,9 +2503,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="13" customFormat="1">
+    <row r="5" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>72</v>
@@ -2510,22 +2520,22 @@
         <v>6</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="13" customFormat="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="27"/>
       <c r="C6" s="29"/>
       <c r="D6" s="31"/>
       <c r="F6" s="31"/>
     </row>
-    <row r="7" spans="1:7" s="13" customFormat="1">
+    <row r="7" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>72</v>
@@ -2534,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>49</v>
@@ -2543,12 +2553,12 @@
         <v>57</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="13" customFormat="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>72</v>
@@ -2557,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>50</v>
@@ -2567,9 +2577,9 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" s="13" customFormat="1">
+    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>72</v>
@@ -2578,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>51</v>
@@ -2588,9 +2598,9 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" s="13" customFormat="1">
+    <row r="10" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>72</v>
@@ -2599,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>54</v>
@@ -2609,9 +2619,9 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" s="13" customFormat="1">
+    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>72</v>
@@ -2620,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>52</v>
@@ -2630,9 +2640,9 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" s="13" customFormat="1">
+    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>72</v>
@@ -2641,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>53</v>
@@ -2651,9 +2661,9 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" s="13" customFormat="1">
+    <row r="13" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>72</v>
@@ -2662,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>55</v>
@@ -2672,9 +2682,9 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" s="13" customFormat="1">
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>72</v>
@@ -2683,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>56</v>
@@ -2693,16 +2703,16 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" s="13" customFormat="1">
+    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="27"/>
       <c r="C15" s="29"/>
       <c r="D15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" s="13" customFormat="1">
+    <row r="16" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>72</v>
@@ -2711,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>7</v>
@@ -2723,9 +2733,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="13" customFormat="1">
+    <row r="17" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>72</v>
@@ -2734,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>8</v>
@@ -2746,16 +2756,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="13" customFormat="1">
+    <row r="18" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="27"/>
       <c r="C18" s="29"/>
       <c r="D18" s="31"/>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:7" s="13" customFormat="1">
+    <row r="19" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>72</v>
@@ -2776,9 +2786,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="13" customFormat="1">
+    <row r="20" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>72</v>
@@ -2799,9 +2809,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="13" customFormat="1">
+    <row r="21" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>72</v>
@@ -2822,9 +2832,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="13" customFormat="1">
+    <row r="22" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>72</v>
@@ -2839,15 +2849,15 @@
         <v>41</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="13" customFormat="1">
+    <row r="23" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>72</v>
@@ -2862,15 +2872,15 @@
         <v>43</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="13" customFormat="1">
+    <row r="24" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>72</v>
@@ -2885,15 +2895,15 @@
         <v>45</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="13" customFormat="1">
+    <row r="25" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>72</v>
@@ -2908,22 +2918,22 @@
         <v>47</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="13" customFormat="1">
+    <row r="26" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="27"/>
       <c r="C26" s="29"/>
       <c r="D26" s="31"/>
       <c r="F26" s="31"/>
     </row>
-    <row r="27" spans="1:7" s="13" customFormat="1">
+    <row r="27" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>72</v>
@@ -2938,12 +2948,12 @@
         <v>34</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="13" customFormat="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>72</v>
@@ -2958,12 +2968,12 @@
         <v>35</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="13" customFormat="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>72</v>
@@ -2978,19 +2988,19 @@
         <v>36</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="13" customFormat="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="27"/>
       <c r="C30" s="29"/>
       <c r="D30" s="31"/>
       <c r="F30" s="31"/>
     </row>
-    <row r="31" spans="1:7" s="13" customFormat="1">
+    <row r="31" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>72</v>
@@ -3011,9 +3021,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="13" customFormat="1">
+    <row r="32" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>72</v>
@@ -3034,9 +3044,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="13" customFormat="1">
+    <row r="33" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>72</v>
@@ -3057,9 +3067,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="13" customFormat="1">
+    <row r="34" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>72</v>
@@ -3080,9 +3090,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="13" customFormat="1">
+    <row r="35" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>72</v>
@@ -3103,9 +3113,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="13" customFormat="1">
+    <row r="36" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>72</v>
@@ -3126,9 +3136,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="13" customFormat="1">
+    <row r="37" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>72</v>
@@ -3149,9 +3159,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="13" customFormat="1">
+    <row r="38" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>72</v>
@@ -3172,9 +3182,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="13" customFormat="1">
+    <row r="39" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>72</v>
@@ -3195,9 +3205,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="13" customFormat="1">
+    <row r="40" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>72</v>
@@ -3218,16 +3228,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="13" customFormat="1">
+    <row r="41" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="27"/>
       <c r="C41" s="29"/>
       <c r="D41" s="31"/>
       <c r="F41" s="31"/>
     </row>
-    <row r="42" spans="1:7" s="13" customFormat="1">
+    <row r="42" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>72</v>
@@ -3236,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>7</v>
@@ -3248,9 +3258,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="13" customFormat="1">
+    <row r="43" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B43" s="27" t="s">
         <v>72</v>
@@ -3259,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>8</v>
@@ -3271,16 +3281,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="13" customFormat="1">
+    <row r="44" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="27"/>
       <c r="C44" s="29"/>
       <c r="D44" s="31"/>
       <c r="F44" s="31"/>
     </row>
-    <row r="45" spans="1:7" s="13" customFormat="1">
+    <row r="45" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B45" s="28" t="s">
         <v>72</v>
@@ -3298,9 +3308,9 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="13" customFormat="1">
+    <row r="46" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B46" s="27" t="s">
         <v>72</v>
@@ -3318,9 +3328,9 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="13" customFormat="1">
+    <row r="47" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B47" s="27" t="s">
         <v>72</v>
@@ -3338,13 +3348,13 @@
         <v>1.3589</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="24" customFormat="1">
+    <row r="48" spans="1:7" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C48" s="25"/>
       <c r="F48" s="32"/>
     </row>
-    <row r="49" spans="1:6" s="13" customFormat="1">
+    <row r="49" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B49" s="28" t="s">
         <v>72</v>
@@ -3353,14 +3363,14 @@
         <v>1</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F49" s="33"/>
     </row>
-    <row r="50" spans="1:6" s="13" customFormat="1"/>
-    <row r="51" spans="1:6" s="13" customFormat="1"/>
-    <row r="52" spans="1:6" s="13" customFormat="1"/>
-    <row r="53" spans="1:6" s="13" customFormat="1"/>
+    <row r="50" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3380,12 +3390,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.5" style="30"/>
+    <col min="1" max="16384" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="30">
         <v>4.6008E-2</v>
       </c>
@@ -3495,7 +3505,7 @@
         <v>-1.137E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>4.2536999999999998E-2</v>
       </c>
@@ -3605,7 +3615,7 @@
         <v>-1.358E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>4.3115000000000001E-2</v>
       </c>
@@ -3715,7 +3725,7 @@
         <v>-1.5838999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>4.3878E-2</v>
       </c>
@@ -3825,7 +3835,7 @@
         <v>-1.8959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>4.3221000000000002E-2</v>
       </c>
@@ -3935,7 +3945,7 @@
         <v>-2.0358000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>4.1510999999999999E-2</v>
       </c>
@@ -4045,7 +4055,7 @@
         <v>-1.9682000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>3.7416999999999999E-2</v>
       </c>
@@ -4155,7 +4165,7 @@
         <v>-1.8426000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>3.4866000000000001E-2</v>
       </c>
@@ -4265,7 +4275,7 @@
         <v>-1.6534E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>3.1199999999999999E-2</v>
       </c>
@@ -4375,7 +4385,7 @@
         <v>-1.4978999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>2.7692999999999999E-2</v>
       </c>
@@ -4485,7 +4495,7 @@
         <v>-1.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>2.4787E-2</v>
       </c>
@@ -4595,7 +4605,7 @@
         <v>-1.2409E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>2.1585E-2</v>
       </c>
@@ -4705,7 +4715,7 @@
         <v>-1.1106E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>1.9362999999999998E-2</v>
       </c>
@@ -4815,7 +4825,7 @@
         <v>-1.0659999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>1.7412E-2</v>
       </c>
@@ -4925,7 +4935,7 @@
         <v>-1.0090999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>1.5740000000000001E-2</v>
       </c>
@@ -5035,7 +5045,7 @@
         <v>-9.4520000000000003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>1.4527E-2</v>
       </c>
@@ -5145,7 +5155,7 @@
         <v>-9.214E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>1.379E-2</v>
       </c>
@@ -5255,7 +5265,7 @@
         <v>-9.1629999999999993E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>1.2543E-2</v>
       </c>
@@ -5365,7 +5375,7 @@
         <v>-9.1640000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>1.1979999999999999E-2</v>
       </c>
@@ -5475,7 +5485,7 @@
         <v>-9.2560000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>1.141E-2</v>
       </c>
@@ -5585,7 +5595,7 @@
         <v>-9.3310000000000008E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>1.0869999999999999E-2</v>
       </c>
@@ -5695,7 +5705,7 @@
         <v>-9.4339999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>1.0403000000000001E-2</v>
       </c>
@@ -5805,7 +5815,7 @@
         <v>-9.6699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>1.018E-2</v>
       </c>
@@ -5915,7 +5925,7 @@
         <v>-9.9600000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>9.5879999999999993E-3</v>
       </c>
@@ -6025,7 +6035,7 @@
         <v>-9.9190000000000007E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>9.384E-3</v>
       </c>
@@ -6135,7 +6145,7 @@
         <v>-1.0031999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>9.025E-3</v>
       </c>
@@ -6245,7 +6255,7 @@
         <v>-9.8969999999999995E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>8.5540000000000008E-3</v>
       </c>
@@ -6355,7 +6365,7 @@
         <v>-9.5949999999999994E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>8.3199999999999993E-3</v>
       </c>
@@ -6465,7 +6475,7 @@
         <v>-9.2449999999999997E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>7.9459999999999999E-3</v>
       </c>
@@ -6575,7 +6585,7 @@
         <v>-8.9110000000000005E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>7.5760000000000003E-3</v>
       </c>
@@ -6685,7 +6695,7 @@
         <v>-8.286E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>7.5640000000000004E-3</v>
       </c>
@@ -6795,7 +6805,7 @@
         <v>-7.8480000000000008E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>7.2570000000000004E-3</v>
       </c>
@@ -6905,7 +6915,7 @@
         <v>-7.273E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>7.1209999999999997E-3</v>
       </c>
@@ -7015,7 +7025,7 @@
         <v>-6.6730000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>7.1009999999999997E-3</v>
       </c>
@@ -7125,7 +7135,7 @@
         <v>-6.0819999999999997E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>6.9690000000000004E-3</v>
       </c>
@@ -7235,7 +7245,7 @@
         <v>-5.555E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>7.1580000000000003E-3</v>
       </c>
@@ -7345,7 +7355,7 @@
         <v>-5.0730000000000003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>7.0470000000000003E-3</v>
       </c>
@@ -7455,7 +7465,7 @@
         <v>-4.6169999999999996E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>7.2830000000000004E-3</v>
       </c>
@@ -7565,7 +7575,7 @@
         <v>-4.3220000000000003E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>7.0229999999999997E-3</v>
       </c>
@@ -7675,7 +7685,7 @@
         <v>-4.0289999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>6.6090000000000003E-3</v>
       </c>
@@ -7785,7 +7795,7 @@
         <v>-3.7910000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>6.4440000000000001E-3</v>
       </c>
@@ -7895,7 +7905,7 @@
         <v>-3.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>5.9170000000000004E-3</v>
       </c>
@@ -8005,7 +8015,7 @@
         <v>-3.4169999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>1.9090000000000001E-3</v>
       </c>
@@ -8115,7 +8125,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>1.421E-3</v>
       </c>
@@ -8225,7 +8235,7 @@
         <v>-1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>1.3699999999999999E-3</v>
       </c>
@@ -8335,7 +8345,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>9.7599999999999998E-4</v>
       </c>
@@ -8445,7 +8455,7 @@
         <v>3.4499999999999998E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>5.5900000000000004E-4</v>
       </c>
@@ -8555,7 +8565,7 @@
         <v>6.4800000000000003E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>-1.1E-5</v>
       </c>
@@ -8665,7 +8675,7 @@
         <v>1.0020000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>-5.62E-4</v>
       </c>
@@ -8775,7 +8785,7 @@
         <v>1.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>-1.3389999999999999E-3</v>
       </c>
@@ -8885,7 +8895,7 @@
         <v>1.5380000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>-2.0699999999999998E-3</v>
       </c>
@@ -8995,7 +9005,7 @@
         <v>1.722E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>-2.702E-3</v>
       </c>
@@ -9105,7 +9115,7 @@
         <v>1.714E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>-2.8639999999999998E-3</v>
       </c>
@@ -9215,7 +9225,7 @@
         <v>1.7279999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>-2.9510000000000001E-3</v>
       </c>
@@ -9325,7 +9335,7 @@
         <v>1.5299999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>-2.8219999999999999E-3</v>
       </c>
@@ -9435,7 +9445,7 @@
         <v>1.3780000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>-2.7550000000000001E-3</v>
       </c>
@@ -9545,7 +9555,7 @@
         <v>1.0640000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>-2.5140000000000002E-3</v>
       </c>
@@ -9655,7 +9665,7 @@
         <v>9.3599999999999998E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>-2.2439999999999999E-3</v>
       </c>
@@ -9765,7 +9775,7 @@
         <v>8.25E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>-2.0070000000000001E-3</v>
       </c>
@@ -9875,7 +9885,7 @@
         <v>6.9899999999999997E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>-1.7780000000000001E-3</v>
       </c>
@@ -9985,7 +9995,7 @@
         <v>6.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>-1.655E-3</v>
       </c>
@@ -10095,7 +10105,7 @@
         <v>4.6700000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>-1.6310000000000001E-3</v>
       </c>
@@ -10205,7 +10215,7 @@
         <v>3.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>-1.5989999999999999E-3</v>
       </c>
@@ -10315,7 +10325,7 @@
         <v>1.93E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>-1.493E-3</v>
       </c>
@@ -10425,7 +10435,7 @@
         <v>6.4999999999999994E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>-1.273E-3</v>
       </c>
@@ -10535,7 +10545,7 @@
         <v>-7.4999999999999993E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>-1.0189999999999999E-3</v>
       </c>
@@ -10645,7 +10655,7 @@
         <v>-1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>-7.1699999999999997E-4</v>
       </c>
@@ -10755,7 +10765,7 @@
         <v>-1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>-1.8E-5</v>
       </c>
@@ -10865,7 +10875,7 @@
         <v>-3.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
         <v>3.28E-4</v>
       </c>
@@ -10975,7 +10985,7 @@
         <v>-5.0299999999999997E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>5.8299999999999997E-4</v>
       </c>
@@ -11085,7 +11095,7 @@
         <v>-6.7100000000000005E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
         <v>8.4999999999999995E-4</v>
       </c>
@@ -11195,7 +11205,7 @@
         <v>-9.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="30">
         <v>1.165E-3</v>
       </c>
@@ -11305,7 +11315,7 @@
         <v>-1.168E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="30">
         <v>1.469E-3</v>
       </c>
@@ -11415,7 +11425,7 @@
         <v>-1.3760000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
         <v>1.9949999999999998E-3</v>
       </c>
@@ -11525,7 +11535,7 @@
         <v>-1.586E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
         <v>2.3739999999999998E-3</v>
       </c>
@@ -11635,7 +11645,7 @@
         <v>-1.663E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
         <v>2.3760000000000001E-3</v>
       </c>
@@ -11745,7 +11755,7 @@
         <v>-1.732E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
         <v>2.4130000000000002E-3</v>
       </c>
@@ -11855,7 +11865,7 @@
         <v>-1.681E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="30">
         <v>2.166E-3</v>
       </c>
@@ -11965,7 +11975,7 @@
         <v>-1.699E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="30">
         <v>1.9530000000000001E-3</v>
       </c>
@@ -12075,7 +12085,7 @@
         <v>-1.627E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="30">
         <v>1.7539999999999999E-3</v>
       </c>
@@ -12185,7 +12195,7 @@
         <v>-1.565E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="30">
         <v>1.653E-3</v>
       </c>
@@ -12295,7 +12305,7 @@
         <v>-1.4779999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="30">
         <v>1.4339999999999999E-3</v>
       </c>
@@ -12405,7 +12415,7 @@
         <v>-1.253E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="30">
         <v>1.5529999999999999E-3</v>
       </c>
@@ -12515,7 +12525,7 @@
         <v>-1.103E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="30">
         <v>1.704E-3</v>
       </c>
@@ -12625,7 +12635,7 @@
         <v>-8.92E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="30">
         <v>1.725E-3</v>
       </c>
@@ -12753,12 +12763,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.5" style="30"/>
+    <col min="1" max="16384" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="30">
         <v>0.11464299999999999</v>
       </c>
@@ -12868,7 +12878,7 @@
         <v>-5.0855999999999998E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>0.11143699999999999</v>
       </c>
@@ -12978,7 +12988,7 @@
         <v>-4.8311E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>0.10566</v>
       </c>
@@ -13088,7 +13098,7 @@
         <v>-4.7612000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>0.103315</v>
       </c>
@@ -13198,7 +13208,7 @@
         <v>-4.4401000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>0.100078</v>
       </c>
@@ -13308,7 +13318,7 @@
         <v>-4.3917999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>9.7517999999999994E-2</v>
       </c>
@@ -13418,7 +13428,7 @@
         <v>-4.0932999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>9.4977000000000006E-2</v>
       </c>
@@ -13528,7 +13538,7 @@
         <v>-3.9729E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>9.2086000000000001E-2</v>
       </c>
@@ -13638,7 +13648,7 @@
         <v>-3.8157999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>8.8232000000000005E-2</v>
       </c>
@@ -13748,7 +13758,7 @@
         <v>-3.6015999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>8.4955000000000003E-2</v>
       </c>
@@ -13858,7 +13868,7 @@
         <v>-3.3876000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>8.2607E-2</v>
       </c>
@@ -13968,7 +13978,7 @@
         <v>-3.2259999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>7.9913999999999999E-2</v>
       </c>
@@ -14078,7 +14088,7 @@
         <v>-3.0206E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>7.8973000000000002E-2</v>
       </c>
@@ -14188,7 +14198,7 @@
         <v>-2.8332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>7.6024999999999995E-2</v>
       </c>
@@ -14298,7 +14308,7 @@
         <v>-2.6426000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>7.4902999999999997E-2</v>
       </c>
@@ -14408,7 +14418,7 @@
         <v>-2.4596E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>7.3431999999999997E-2</v>
       </c>
@@ -14518,7 +14528,7 @@
         <v>-2.2771E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>7.2954000000000005E-2</v>
       </c>
@@ -14628,7 +14638,7 @@
         <v>-2.1378000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>7.2392999999999999E-2</v>
       </c>
@@ -14738,7 +14748,7 @@
         <v>-2.0163E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>7.1642999999999998E-2</v>
       </c>
@@ -14848,7 +14858,7 @@
         <v>-1.9016999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>7.0186999999999999E-2</v>
       </c>
@@ -14958,7 +14968,7 @@
         <v>-1.8008E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>6.9302000000000002E-2</v>
       </c>
@@ -15068,7 +15078,7 @@
         <v>-1.7052000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>6.8472000000000005E-2</v>
       </c>
@@ -15178,7 +15188,7 @@
         <v>-1.6406E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>6.7325999999999997E-2</v>
       </c>
@@ -15288,7 +15298,7 @@
         <v>-1.5685000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>6.6239999999999993E-2</v>
       </c>
@@ -15398,7 +15408,7 @@
         <v>-1.5491E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>6.5568000000000001E-2</v>
       </c>
@@ -15508,7 +15518,7 @@
         <v>-1.5266999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>6.4459000000000002E-2</v>
       </c>
@@ -15618,7 +15628,7 @@
         <v>-1.5446E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>6.3698000000000005E-2</v>
       </c>
@@ -15728,7 +15738,7 @@
         <v>-1.5762000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>6.2205000000000003E-2</v>
       </c>
@@ -15838,7 +15848,7 @@
         <v>-1.5906E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>6.1772000000000001E-2</v>
       </c>
@@ -15948,7 +15958,7 @@
         <v>-1.6376000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>6.0983000000000002E-2</v>
       </c>
@@ -16058,7 +16068,7 @@
         <v>-1.6698000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>5.9484000000000002E-2</v>
       </c>
@@ -16168,7 +16178,7 @@
         <v>-1.7065E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>5.885E-2</v>
       </c>
@@ -16278,7 +16288,7 @@
         <v>-1.7538000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>5.8035000000000003E-2</v>
       </c>
@@ -16388,7 +16398,7 @@
         <v>-1.7956E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>5.6728000000000001E-2</v>
       </c>
@@ -16498,7 +16508,7 @@
         <v>-1.8258E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>5.6006E-2</v>
       </c>
@@ -16608,7 +16618,7 @@
         <v>-1.8557000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>5.4544000000000002E-2</v>
       </c>
@@ -16718,7 +16728,7 @@
         <v>-1.8412999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>5.3428000000000003E-2</v>
       </c>
@@ -16828,7 +16838,7 @@
         <v>-1.8096000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>5.2255000000000003E-2</v>
       </c>
@@ -16938,7 +16948,7 @@
         <v>-1.7731E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>5.1347999999999998E-2</v>
       </c>
@@ -17048,7 +17058,7 @@
         <v>-1.7405E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>5.0941E-2</v>
       </c>
@@ -17158,7 +17168,7 @@
         <v>-1.6965000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>5.0456000000000001E-2</v>
       </c>
@@ -17268,7 +17278,7 @@
         <v>-1.6688000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>4.9521000000000003E-2</v>
       </c>
@@ -17378,7 +17388,7 @@
         <v>-1.6479000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>5.2349E-2</v>
       </c>
@@ -17488,7 +17498,7 @@
         <v>-1.9583E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>5.2712000000000002E-2</v>
       </c>
@@ -17598,7 +17608,7 @@
         <v>-1.9982E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>5.2965999999999999E-2</v>
       </c>
@@ -17708,7 +17718,7 @@
         <v>-2.0264000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>5.373E-2</v>
       </c>
@@ -17818,7 +17828,7 @@
         <v>-2.0386000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>5.4421999999999998E-2</v>
       </c>
@@ -17928,7 +17938,7 @@
         <v>-2.0745E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>5.5028000000000001E-2</v>
       </c>
@@ -18038,7 +18048,7 @@
         <v>-2.0560999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>5.5216000000000001E-2</v>
       </c>
@@ -18148,7 +18158,7 @@
         <v>-2.0379999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>5.5146000000000001E-2</v>
       </c>
@@ -18258,7 +18268,7 @@
         <v>-1.9935000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>5.4336000000000002E-2</v>
       </c>
@@ -18368,7 +18378,7 @@
         <v>-1.9289000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>5.3359999999999998E-2</v>
       </c>
@@ -18478,7 +18488,7 @@
         <v>-1.8554999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>5.2211E-2</v>
       </c>
@@ -18588,7 +18598,7 @@
         <v>-1.8151E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>5.0758999999999999E-2</v>
       </c>
@@ -18698,7 +18708,7 @@
         <v>-1.7795999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>4.9699E-2</v>
       </c>
@@ -18808,7 +18818,7 @@
         <v>-1.7281000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>4.9028000000000002E-2</v>
       </c>
@@ -18918,7 +18928,7 @@
         <v>-1.6966999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>4.8057000000000002E-2</v>
       </c>
@@ -19028,7 +19038,7 @@
         <v>-1.6674999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>4.7393999999999999E-2</v>
       </c>
@@ -19138,7 +19148,7 @@
         <v>-1.6372000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>4.6948999999999998E-2</v>
       </c>
@@ -19248,7 +19258,7 @@
         <v>-1.6211E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>4.6358000000000003E-2</v>
       </c>
@@ -19358,7 +19368,7 @@
         <v>-1.5982E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>4.6005999999999998E-2</v>
       </c>
@@ -19468,7 +19478,7 @@
         <v>-1.5730999999999998E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>4.5657000000000003E-2</v>
       </c>
@@ -19578,7 +19588,7 @@
         <v>-1.5650000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>4.4887999999999997E-2</v>
       </c>
@@ -19688,7 +19698,7 @@
         <v>-1.5442000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>4.4344000000000001E-2</v>
       </c>
@@ -19798,7 +19808,7 @@
         <v>-1.5474999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>4.3698000000000001E-2</v>
       </c>
@@ -19908,7 +19918,7 @@
         <v>-1.5446E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>4.2992000000000002E-2</v>
       </c>
@@ -20018,7 +20028,7 @@
         <v>-1.5382E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>4.2221000000000002E-2</v>
       </c>
@@ -20128,7 +20138,7 @@
         <v>-1.5272000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>4.2258999999999998E-2</v>
       </c>
@@ -20238,7 +20248,7 @@
         <v>-1.5022000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
         <v>4.1813000000000003E-2</v>
       </c>
@@ -20348,7 +20358,7 @@
         <v>-1.4598E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>4.1190999999999998E-2</v>
       </c>
@@ -20458,7 +20468,7 @@
         <v>-1.439E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
         <v>4.1315999999999999E-2</v>
       </c>
@@ -20568,7 +20578,7 @@
         <v>-1.4239E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="30">
         <v>4.0593999999999998E-2</v>
       </c>
@@ -20678,7 +20688,7 @@
         <v>-1.4161E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="30">
         <v>4.0902000000000001E-2</v>
       </c>
@@ -20788,7 +20798,7 @@
         <v>-1.4272999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
         <v>4.0507000000000001E-2</v>
       </c>
@@ -20898,7 +20908,7 @@
         <v>-1.4279999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
         <v>4.1043999999999997E-2</v>
       </c>
@@ -21008,7 +21018,7 @@
         <v>-1.4352999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
         <v>4.0555000000000001E-2</v>
       </c>
@@ -21118,7 +21128,7 @@
         <v>-1.4429000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
         <v>4.1255E-2</v>
       </c>
@@ -21228,7 +21238,7 @@
         <v>-1.4637000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="30">
         <v>4.0912999999999998E-2</v>
       </c>
@@ -21338,7 +21348,7 @@
         <v>-1.4713E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="30">
         <v>4.1392999999999999E-2</v>
       </c>
@@ -21448,7 +21458,7 @@
         <v>-1.5044E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="30">
         <v>4.0951000000000001E-2</v>
       </c>
@@ -21558,7 +21568,7 @@
         <v>-1.5200999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="30">
         <v>4.0934999999999999E-2</v>
       </c>
@@ -21668,7 +21678,7 @@
         <v>-1.54E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="30">
         <v>4.0092999999999997E-2</v>
       </c>
@@ -21778,7 +21788,7 @@
         <v>-1.5492000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="30">
         <v>3.9625E-2</v>
       </c>
@@ -21888,7 +21898,7 @@
         <v>-1.5389E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="30">
         <v>3.8066000000000003E-2</v>
       </c>
@@ -21998,7 +22008,7 @@
         <v>-1.4987E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="30">
         <v>3.8646E-2</v>
       </c>
